--- a/data/model_2.xlsx
+++ b/data/model_2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8AB14-DD2A-DA4A-97BB-D672DB8D640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3163A8-77D5-E147-8039-E4F0A5DFE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="21920" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1180" windowWidth="21920" windowHeight="11960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic_Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Observable_Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Latent_Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Construct_Variables" sheetId="4" r:id="rId3"/>
     <sheet name="Dependent_Variables" sheetId="3" r:id="rId4"/>
-    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Relations" sheetId="7" r:id="rId5"/>
+    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>number_questions</t>
   </si>
@@ -130,15 +131,6 @@
     <t>Reliability +  Responsiveness + Tangible +  Empathy +  Supportive</t>
   </si>
   <si>
-    <t>Services_Satisfied</t>
-  </si>
-  <si>
-    <t>Recommend_Services</t>
-  </si>
-  <si>
-    <t>Continue_Use_Services</t>
-  </si>
-  <si>
     <t>used_as_moderator</t>
   </si>
   <si>
@@ -146,6 +138,15 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Service Quality</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>Behavioral Intentions</t>
   </si>
 </sst>
 </file>
@@ -279,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -317,6 +318,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +632,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -662,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -690,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -704,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -718,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456746AF-AAC0-6740-ADBA-FBBBE84427F2}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,7 +870,7 @@
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -872,10 +879,20 @@
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1869,10 +1886,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1901,33 +1918,18 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="11">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,6 +1937,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA446BB-C595-0E4C-A548-D66204C4AEBE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224409F-DC1C-8D46-9847-CA3F9BD3AB5C}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -2958,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDD08C-3199-3C4D-B2D9-FB36B06909EA}">
   <dimension ref="A1:C1000"/>
   <sheetViews>

--- a/data/model_2.xlsx
+++ b/data/model_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3163A8-77D5-E147-8039-E4F0A5DFE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B7C05-7810-654C-89FF-BE829B2E3872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1180" windowWidth="21920" windowHeight="11960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1180" windowWidth="21920" windowHeight="11960" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic_Variables" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Relations" sheetId="7" r:id="rId5"/>
     <sheet name="VarCovar_Relations" sheetId="5" r:id="rId6"/>
     <sheet name="Parameters" sheetId="6" r:id="rId7"/>
+    <sheet name="Refs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>number_questions</t>
   </si>
@@ -146,14 +147,20 @@
     <t>Satisfaction</t>
   </si>
   <si>
-    <t>Behavioral Intentions</t>
+    <t>https://www.ibm.com/downloads/cas/PQWMKEM5</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Retention</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +199,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,11 +291,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,11 +337,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9621BD10-E3E1-9E48-8867-A174F1B86F54}"/>
   </cellStyles>
@@ -840,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456746AF-AAC0-6740-ADBA-FBBBE84427F2}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -886,11 +906,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1886,10 +1906,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,10 +1938,10 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="11">
         <v>36</v>
@@ -1930,6 +1950,20 @@
         <v>34</v>
       </c>
       <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA446BB-C595-0E4C-A548-D66204C4AEBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1960,18 +1994,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>35</v>
+      <c r="A2" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4069,4 +4111,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26C4B0-1721-C941-97FE-143D98059B07}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{67125CE5-3DAF-FE40-9906-181BFD5590D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>